--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value373.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value373.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.314705724711075</v>
+        <v>1.059008598327637</v>
       </c>
       <c r="B1">
-        <v>2.458971138089011</v>
+        <v>3.584442853927612</v>
       </c>
       <c r="C1">
-        <v>2.665018795443047</v>
+        <v>3.341569185256958</v>
       </c>
       <c r="D1">
-        <v>1.741646402607093</v>
+        <v>2.002537965774536</v>
       </c>
       <c r="E1">
-        <v>0.772869167145531</v>
+        <v>1.156426072120667</v>
       </c>
     </row>
   </sheetData>
